--- a/public/savefiles/course_2564.xlsx
+++ b/public/savefiles/course_2564.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="94">
   <si>
     <t>รหัสวิชา</t>
   </si>
@@ -25,349 +25,223 @@
     <t>หมวด</t>
   </si>
   <si>
-    <t>03603171</t>
-  </si>
-  <si>
-    <t>Introduction to Computer Engineering and Informatics</t>
+    <t>03603321</t>
+  </si>
+  <si>
+    <t>Computer Networks Laboratory</t>
+  </si>
+  <si>
+    <t>3(1-6-6)</t>
+  </si>
+  <si>
+    <t>03603421</t>
+  </si>
+  <si>
+    <t>Internetworking with TCP/IP</t>
   </si>
   <si>
     <t>3(3-0-6)</t>
   </si>
   <si>
-    <t>03603352</t>
-  </si>
-  <si>
-    <t>Laws and Ethics in Information Technology</t>
-  </si>
-  <si>
-    <t>03603251</t>
-  </si>
-  <si>
-    <t>Database Systems</t>
-  </si>
-  <si>
-    <t>03603252</t>
-  </si>
-  <si>
-    <t>Database Systems Laboratory</t>
+    <t>03603422</t>
+  </si>
+  <si>
+    <t>Wireless and Mobile Networks</t>
+  </si>
+  <si>
+    <t>03603423</t>
+  </si>
+  <si>
+    <t>Network Programming</t>
+  </si>
+  <si>
+    <t>03603426</t>
+  </si>
+  <si>
+    <t>Cyber Security</t>
+  </si>
+  <si>
+    <t>03603427</t>
+  </si>
+  <si>
+    <t>Mobile Computing</t>
+  </si>
+  <si>
+    <t>03603428</t>
+  </si>
+  <si>
+    <t>Internet of Things</t>
+  </si>
+  <si>
+    <t>03603429</t>
+  </si>
+  <si>
+    <t>Cryptography and Blockchain Technology</t>
+  </si>
+  <si>
+    <t>03603411</t>
+  </si>
+  <si>
+    <t>Functional Programming</t>
+  </si>
+  <si>
+    <t>03603435</t>
+  </si>
+  <si>
+    <t>Cloud Computing</t>
+  </si>
+  <si>
+    <t>03603436</t>
+  </si>
+  <si>
+    <t>Web Application Development</t>
+  </si>
+  <si>
+    <t>03603437</t>
+  </si>
+  <si>
+    <t>Mobile Application Development</t>
+  </si>
+  <si>
+    <t>03603482</t>
+  </si>
+  <si>
+    <t>User Experience Design</t>
+  </si>
+  <si>
+    <t>03603484</t>
+  </si>
+  <si>
+    <t>Computer Game Development</t>
+  </si>
+  <si>
+    <t>03603441</t>
+  </si>
+  <si>
+    <t>Software Testing</t>
+  </si>
+  <si>
+    <t>03603351</t>
+  </si>
+  <si>
+    <t>Introduction to Data Science</t>
+  </si>
+  <si>
+    <t>03603452</t>
+  </si>
+  <si>
+    <t>Mining Big Data</t>
+  </si>
+  <si>
+    <t>03603461</t>
+  </si>
+  <si>
+    <t>Artificial Intelligence</t>
+  </si>
+  <si>
+    <t>03603462</t>
+  </si>
+  <si>
+    <t>Machine Learning</t>
+  </si>
+  <si>
+    <t>03603463</t>
+  </si>
+  <si>
+    <t>Biologically-Inspired Computational Intelligence</t>
+  </si>
+  <si>
+    <t>03603465</t>
+  </si>
+  <si>
+    <t>Natural Language Processing</t>
+  </si>
+  <si>
+    <t>03603381</t>
+  </si>
+  <si>
+    <t>Digital Signal Processing for Computer Engineers</t>
+  </si>
+  <si>
+    <t>03603382</t>
+  </si>
+  <si>
+    <t>Digital Image Processing</t>
+  </si>
+  <si>
+    <t>03603383</t>
+  </si>
+  <si>
+    <t>Digital Identification</t>
+  </si>
+  <si>
+    <t>03603464</t>
+  </si>
+  <si>
+    <t>Computer Vision</t>
+  </si>
+  <si>
+    <t>03603481</t>
+  </si>
+  <si>
+    <t>Computer Graphics</t>
+  </si>
+  <si>
+    <t>03603485</t>
+  </si>
+  <si>
+    <t>Digital Audio and Computer Music</t>
+  </si>
+  <si>
+    <t>03603371</t>
+  </si>
+  <si>
+    <t>Application Development for Embedded Devices</t>
+  </si>
+  <si>
+    <t>03603471</t>
+  </si>
+  <si>
+    <t>Embedded Systems Interfacing</t>
+  </si>
+  <si>
+    <t>03603472</t>
+  </si>
+  <si>
+    <t>Industrial Automation and Control</t>
+  </si>
+  <si>
+    <t>03603473</t>
+  </si>
+  <si>
+    <t>Digital Circuit Design with VHDL</t>
+  </si>
+  <si>
+    <t>03603474</t>
+  </si>
+  <si>
+    <t>Real-Time Operating System</t>
+  </si>
+  <si>
+    <t>03603475</t>
+  </si>
+  <si>
+    <t>Sensors and Transducer</t>
+  </si>
+  <si>
+    <t>03603476</t>
+  </si>
+  <si>
+    <t>Embedded System Circuit Design</t>
+  </si>
+  <si>
+    <t>03603495</t>
+  </si>
+  <si>
+    <t>Computer Engineering and Informatics Project Preparation</t>
   </si>
   <si>
     <t>1(0-3-2)</t>
-  </si>
-  <si>
-    <t>03603212</t>
-  </si>
-  <si>
-    <t>Abstract Data Types and Problem Solving</t>
-  </si>
-  <si>
-    <t>03603213</t>
-  </si>
-  <si>
-    <t>Algorithm Design and Analysis</t>
-  </si>
-  <si>
-    <t>03603214</t>
-  </si>
-  <si>
-    <t>Programming Skills Development Laboratory</t>
-  </si>
-  <si>
-    <t>03603241</t>
-  </si>
-  <si>
-    <t>Application Development</t>
-  </si>
-  <si>
-    <t>03603341</t>
-  </si>
-  <si>
-    <t>Software Engineering</t>
-  </si>
-  <si>
-    <t>4(3-3-8)</t>
-  </si>
-  <si>
-    <t>00360334</t>
-  </si>
-  <si>
-    <t>Combined Information Technology for Software Development Laboratory</t>
-  </si>
-  <si>
-    <t>03603211</t>
-  </si>
-  <si>
-    <t>Discrete Mathematics</t>
-  </si>
-  <si>
-    <t>03603312</t>
-  </si>
-  <si>
-    <t>Probability and Statistics for Informatics</t>
-  </si>
-  <si>
-    <t>03603325</t>
-  </si>
-  <si>
-    <t>Data Communications and Computer Networks</t>
-  </si>
-  <si>
-    <t>03603332</t>
-  </si>
-  <si>
-    <t>Operating Systems</t>
-  </si>
-  <si>
-    <t>03603221</t>
-  </si>
-  <si>
-    <t>Digital Systems Design</t>
-  </si>
-  <si>
-    <t>03603222</t>
-  </si>
-  <si>
-    <t>Logic Circuit Laboratory</t>
-  </si>
-  <si>
-    <t>03603223</t>
-  </si>
-  <si>
-    <t>Computer Architecture and Organization</t>
-  </si>
-  <si>
-    <t>03603323</t>
-  </si>
-  <si>
-    <t>Introduction to Embedded Systems</t>
-  </si>
-  <si>
-    <t>03603324</t>
-  </si>
-  <si>
-    <t>Embedded Systems Laboratory</t>
-  </si>
-  <si>
-    <t>03603497</t>
-  </si>
-  <si>
-    <t>Seminar</t>
-  </si>
-  <si>
-    <t>1(0-0-0)</t>
-  </si>
-  <si>
-    <t>03603321</t>
-  </si>
-  <si>
-    <t>Computer Networks Laboratory</t>
-  </si>
-  <si>
-    <t>3(1-6-6)</t>
-  </si>
-  <si>
-    <t>03603421</t>
-  </si>
-  <si>
-    <t>Internetworking with TCP/IP</t>
-  </si>
-  <si>
-    <t>03603422</t>
-  </si>
-  <si>
-    <t>Wireless and Mobile Networks</t>
-  </si>
-  <si>
-    <t>03603423</t>
-  </si>
-  <si>
-    <t>Network Programming</t>
-  </si>
-  <si>
-    <t>03603426</t>
-  </si>
-  <si>
-    <t>Cyber Security</t>
-  </si>
-  <si>
-    <t>03603427</t>
-  </si>
-  <si>
-    <t>Mobile Computing</t>
-  </si>
-  <si>
-    <t>03603428</t>
-  </si>
-  <si>
-    <t>Internet of Things</t>
-  </si>
-  <si>
-    <t>03603429</t>
-  </si>
-  <si>
-    <t>Cryptography and Blockchain Technology</t>
-  </si>
-  <si>
-    <t>03603411</t>
-  </si>
-  <si>
-    <t>Functional Programming</t>
-  </si>
-  <si>
-    <t>03603435</t>
-  </si>
-  <si>
-    <t>Cloud Computing</t>
-  </si>
-  <si>
-    <t>03603436</t>
-  </si>
-  <si>
-    <t>Web Application Development</t>
-  </si>
-  <si>
-    <t>03603437</t>
-  </si>
-  <si>
-    <t>Mobile Application Development</t>
-  </si>
-  <si>
-    <t>03603482</t>
-  </si>
-  <si>
-    <t>User Experience Design</t>
-  </si>
-  <si>
-    <t>03603484</t>
-  </si>
-  <si>
-    <t>Computer Game Development</t>
-  </si>
-  <si>
-    <t>03603441</t>
-  </si>
-  <si>
-    <t>Software Testing</t>
-  </si>
-  <si>
-    <t>03603351</t>
-  </si>
-  <si>
-    <t>Introduction to Data Science</t>
-  </si>
-  <si>
-    <t>03603452</t>
-  </si>
-  <si>
-    <t>Mining Big Data</t>
-  </si>
-  <si>
-    <t>03603461</t>
-  </si>
-  <si>
-    <t>Artificial Intelligence</t>
-  </si>
-  <si>
-    <t>03603462</t>
-  </si>
-  <si>
-    <t>Machine Learning</t>
-  </si>
-  <si>
-    <t>03603463</t>
-  </si>
-  <si>
-    <t>Biologically-Inspired Computational Intelligence</t>
-  </si>
-  <si>
-    <t>03603465</t>
-  </si>
-  <si>
-    <t>Natural Language Processing</t>
-  </si>
-  <si>
-    <t>03603381</t>
-  </si>
-  <si>
-    <t>Digital Signal Processing for Computer Engineers</t>
-  </si>
-  <si>
-    <t>03603382</t>
-  </si>
-  <si>
-    <t>Digital Image Processing</t>
-  </si>
-  <si>
-    <t>03603383</t>
-  </si>
-  <si>
-    <t>Digital Identification</t>
-  </si>
-  <si>
-    <t>03603464</t>
-  </si>
-  <si>
-    <t>Computer Vision</t>
-  </si>
-  <si>
-    <t>03603481</t>
-  </si>
-  <si>
-    <t>Computer Graphics</t>
-  </si>
-  <si>
-    <t>03603485</t>
-  </si>
-  <si>
-    <t>Digital Audio and Computer Music</t>
-  </si>
-  <si>
-    <t>03603371</t>
-  </si>
-  <si>
-    <t>Application Development for Embedded Devices</t>
-  </si>
-  <si>
-    <t>03603471</t>
-  </si>
-  <si>
-    <t>Embedded Systems Interfacing</t>
-  </si>
-  <si>
-    <t>03603472</t>
-  </si>
-  <si>
-    <t>Industrial Automation and Control</t>
-  </si>
-  <si>
-    <t>03603473</t>
-  </si>
-  <si>
-    <t>Digital Circuit Design with VHDL</t>
-  </si>
-  <si>
-    <t>03603474</t>
-  </si>
-  <si>
-    <t>Real-Time Operating System</t>
-  </si>
-  <si>
-    <t>03603475</t>
-  </si>
-  <si>
-    <t>Sensors and Transducer</t>
-  </si>
-  <si>
-    <t>03603476</t>
-  </si>
-  <si>
-    <t>Embedded System Circuit Design</t>
-  </si>
-  <si>
-    <t>03603495</t>
-  </si>
-  <si>
-    <t>Computer Engineering and Informatics Project Preparation</t>
   </si>
   <si>
     <t>03603499</t>
@@ -795,7 +669,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D64"/>
+  <dimension ref="A1:D44"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -831,29 +705,29 @@
         <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C5" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -864,7 +738,7 @@
         <v>15</v>
       </c>
       <c r="C6" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -875,7 +749,7 @@
         <v>17</v>
       </c>
       <c r="C7" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -886,7 +760,7 @@
         <v>19</v>
       </c>
       <c r="C8" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -897,7 +771,7 @@
         <v>21</v>
       </c>
       <c r="C9" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -908,601 +782,381 @@
         <v>23</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" t="s">
         <v>25</v>
       </c>
-      <c r="B11" t="s">
-        <v>26</v>
-      </c>
       <c r="C11" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12" t="s">
         <v>27</v>
       </c>
-      <c r="B12" t="s">
-        <v>28</v>
-      </c>
       <c r="C12" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
+        <v>28</v>
+      </c>
+      <c r="B13" t="s">
         <v>29</v>
       </c>
-      <c r="B13" t="s">
-        <v>30</v>
-      </c>
       <c r="C13" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
+        <v>30</v>
+      </c>
+      <c r="B14" t="s">
         <v>31</v>
       </c>
-      <c r="B14" t="s">
-        <v>32</v>
-      </c>
       <c r="C14" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
+        <v>32</v>
+      </c>
+      <c r="B15" t="s">
         <v>33</v>
       </c>
-      <c r="B15" t="s">
-        <v>34</v>
-      </c>
       <c r="C15" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
+        <v>34</v>
+      </c>
+      <c r="B16" t="s">
         <v>35</v>
       </c>
-      <c r="B16" t="s">
-        <v>36</v>
-      </c>
       <c r="C16" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
+        <v>36</v>
+      </c>
+      <c r="B17" t="s">
         <v>37</v>
       </c>
-      <c r="B17" t="s">
-        <v>38</v>
-      </c>
       <c r="C17" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
+        <v>38</v>
+      </c>
+      <c r="B18" t="s">
         <v>39</v>
       </c>
-      <c r="B18" t="s">
-        <v>40</v>
-      </c>
       <c r="C18" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
+        <v>40</v>
+      </c>
+      <c r="B19" t="s">
         <v>41</v>
       </c>
-      <c r="B19" t="s">
-        <v>42</v>
-      </c>
       <c r="C19" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
+        <v>42</v>
+      </c>
+      <c r="B20" t="s">
         <v>43</v>
       </c>
-      <c r="B20" t="s">
-        <v>44</v>
-      </c>
       <c r="C20" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
+        <v>44</v>
+      </c>
+      <c r="B21" t="s">
         <v>45</v>
       </c>
-      <c r="B21" t="s">
-        <v>46</v>
-      </c>
       <c r="C21" t="s">
-        <v>47</v>
+        <v>9</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B22" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C22" t="s">
-        <v>50</v>
+        <v>9</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B23" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C23" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B24" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C24" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B25" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C25" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B26" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C26" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B27" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C27" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>61</v>
+        <v>32</v>
       </c>
       <c r="B28" t="s">
-        <v>62</v>
+        <v>33</v>
       </c>
       <c r="C28" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="B29" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="C29" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="B30" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="C30" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="B31" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="C31" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="B32" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="C32" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="B33" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="C33" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="B34" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="C34" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="B35" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="C35" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="B36" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="C36" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="B37" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="C37" t="s">
-        <v>6</v>
+        <v>76</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="B38" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C38" t="s">
-        <v>6</v>
+        <v>79</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B39" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C39" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B40" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C40" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B41" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C41" t="s">
-        <v>6</v>
+        <v>86</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B42" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C42" t="s">
-        <v>6</v>
+        <v>86</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B43" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C43" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
+        <v>91</v>
+      </c>
+      <c r="B44" t="s">
+        <v>92</v>
+      </c>
+      <c r="C44" t="s">
         <v>93</v>
-      </c>
-      <c r="B44" t="s">
-        <v>94</v>
-      </c>
-      <c r="C44" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>95</v>
-      </c>
-      <c r="B45" t="s">
-        <v>96</v>
-      </c>
-      <c r="C45" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>97</v>
-      </c>
-      <c r="B46" t="s">
-        <v>98</v>
-      </c>
-      <c r="C46" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>99</v>
-      </c>
-      <c r="B47" t="s">
-        <v>100</v>
-      </c>
-      <c r="C47" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>75</v>
-      </c>
-      <c r="B48" t="s">
-        <v>76</v>
-      </c>
-      <c r="C48" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>101</v>
-      </c>
-      <c r="B49" t="s">
-        <v>102</v>
-      </c>
-      <c r="C49" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>103</v>
-      </c>
-      <c r="B50" t="s">
-        <v>104</v>
-      </c>
-      <c r="C50" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>105</v>
-      </c>
-      <c r="B51" t="s">
-        <v>106</v>
-      </c>
-      <c r="C51" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>107</v>
-      </c>
-      <c r="B52" t="s">
-        <v>108</v>
-      </c>
-      <c r="C52" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>109</v>
-      </c>
-      <c r="B53" t="s">
-        <v>110</v>
-      </c>
-      <c r="C53" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>111</v>
-      </c>
-      <c r="B54" t="s">
-        <v>112</v>
-      </c>
-      <c r="C54" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>113</v>
-      </c>
-      <c r="B55" t="s">
-        <v>114</v>
-      </c>
-      <c r="C55" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>115</v>
-      </c>
-      <c r="B56" t="s">
-        <v>116</v>
-      </c>
-      <c r="C56" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
-        <v>117</v>
-      </c>
-      <c r="B57" t="s">
-        <v>118</v>
-      </c>
-      <c r="C57" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
-        <v>119</v>
-      </c>
-      <c r="B58" t="s">
-        <v>120</v>
-      </c>
-      <c r="C58" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
-        <v>122</v>
-      </c>
-      <c r="B59" t="s">
-        <v>123</v>
-      </c>
-      <c r="C59" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
-        <v>124</v>
-      </c>
-      <c r="B60" t="s">
-        <v>125</v>
-      </c>
-      <c r="C60" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
-        <v>126</v>
-      </c>
-      <c r="B61" t="s">
-        <v>127</v>
-      </c>
-      <c r="C61" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
-        <v>129</v>
-      </c>
-      <c r="B62" t="s">
-        <v>130</v>
-      </c>
-      <c r="C62" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
-        <v>131</v>
-      </c>
-      <c r="B63" t="s">
-        <v>132</v>
-      </c>
-      <c r="C63" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
-        <v>133</v>
-      </c>
-      <c r="B64" t="s">
-        <v>134</v>
-      </c>
-      <c r="C64" t="s">
-        <v>135</v>
       </c>
     </row>
   </sheetData>
